--- a/StructureDefinition-ZoonosisSurveillanceLM.xlsx
+++ b/StructureDefinition-ZoonosisSurveillanceLM.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="158">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:38:22+00:00</t>
+    <t>2024-04-10T12:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Admin Level 1</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/regions-vs</t>
   </si>
   <si>
     <t>ZoonosisSurveillanceLM.location.adminLevel2</t>
@@ -3268,7 +3271,7 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>142</v>
@@ -3301,13 +3304,11 @@
         <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>71</v>
@@ -3345,10 +3346,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3374,10 +3375,10 @@
         <v>81</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3428,7 +3429,7 @@
         <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>72</v>
@@ -3448,10 +3449,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3477,10 +3478,10 @@
         <v>81</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3531,7 +3532,7 @@
         <v>71</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>72</v>
@@ -3551,10 +3552,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3580,10 +3581,10 @@
         <v>81</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3634,7 +3635,7 @@
         <v>71</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>72</v>
@@ -3654,10 +3655,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3683,10 +3684,10 @@
         <v>81</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3737,7 +3738,7 @@
         <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>72</v>
@@ -3757,10 +3758,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3783,13 +3784,13 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3840,7 +3841,7 @@
         <v>71</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>72</v>
@@ -3860,10 +3861,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3886,13 +3887,13 @@
         <v>71</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3943,7 +3944,7 @@
         <v>71</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>72</v>
